--- a/CriptoTestVectors.xlsx
+++ b/CriptoTestVectors.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAM_NUEVO_Y_PROYECTOS\2023-2\Cripto\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7A353-0418-4E16-9E9A-CFC0D4268F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C4E13-4980-4E91-B928-9CA2A585DF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="12435" windowHeight="14790" firstSheet="1" activeTab="1" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="12435" windowHeight="14790" activeTab="1" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuentes" sheetId="1" r:id="rId1"/>
-    <sheet name="AESECB" sheetId="2" r:id="rId2"/>
+    <sheet name="AESEBC" sheetId="2" r:id="rId2"/>
     <sheet name="AESGCM" sheetId="3" r:id="rId3"/>
     <sheet name="CHACHA20" sheetId="4" r:id="rId4"/>
     <sheet name="SHA2" sheetId="5" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t xml:space="preserve">PLAINTEXT and/or IV = </t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Scrypt</t>
+  </si>
+  <si>
+    <t>HASHING</t>
+  </si>
+  <si>
+    <t>https://www.di-mgt.com.au/sha_testvectors.html</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88DCD87-C536-44A0-A021-A859AD837B2C}">
-  <dimension ref="B3:B9"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +648,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,7 +668,7 @@
   <dimension ref="B4:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +683,9 @@
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -975,7 +995,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1054,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CriptoTestVectors.xlsx
+++ b/CriptoTestVectors.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAM_NUEVO_Y_PROYECTOS\2023-2\Cripto\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C4E13-4980-4E91-B928-9CA2A585DF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA124A-0354-4C0F-8A05-9E19302D0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="12435" windowHeight="14790" activeTab="1" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="12435" windowHeight="14790" activeTab="2" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuentes" sheetId="1" r:id="rId1"/>
-    <sheet name="AESEBC" sheetId="2" r:id="rId2"/>
-    <sheet name="AESGCM" sheetId="3" r:id="rId3"/>
+    <sheet name="AESEBC" sheetId="2" r:id="rId1"/>
+    <sheet name="AESGCM" sheetId="3" r:id="rId2"/>
+    <sheet name="RSAOAEP" sheetId="8" r:id="rId3"/>
     <sheet name="CHACHA20" sheetId="4" r:id="rId4"/>
     <sheet name="SHA2" sheetId="5" r:id="rId5"/>
     <sheet name="SHA3" sheetId="6" r:id="rId6"/>
     <sheet name="Scrypt" sheetId="7" r:id="rId7"/>
+    <sheet name="Fuentes" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t xml:space="preserve">PLAINTEXT and/or IV = </t>
   </si>
@@ -155,18 +156,6 @@
     <t xml:space="preserve">000102030405060708090a0b0c0d0e0f101112131415161718191a1b1c1d1e1f     </t>
   </si>
   <si>
-    <t>0000000000000000</t>
-  </si>
-  <si>
-    <t>0000000000000001</t>
-  </si>
-  <si>
-    <t>0100000000000000</t>
-  </si>
-  <si>
-    <t>0001020304050607</t>
-  </si>
-  <si>
     <t>SHA-2</t>
   </si>
   <si>
@@ -204,13 +193,61 @@
   </si>
   <si>
     <t>https://www.di-mgt.com.au/sha_testvectors.html</t>
+  </si>
+  <si>
+    <t>cafebabefacedbadcafebabefacedbad</t>
+  </si>
+  <si>
+    <t>2b24d38ffda377c8bc3f82ab5fa24bb8</t>
+  </si>
+  <si>
+    <t>5661a0e789d73c76f4c028161f5de5ffa81c448969044a5363f4fd78dbee7a230404220d910369b7c0d5d2dfceed4d18149cbe86ea95dac04b3af372caae55c4</t>
+  </si>
+  <si>
+    <t>f215e1aa0527712d19668b6ef0576d224cac84720247f3c0325b71a5780d2d130d6a531c9c30de3a44edb162d43e3ba741e6ef343f43e1ba428040b2</t>
+  </si>
+  <si>
+    <t>86bf00a15517608dcaecfaff9701989eda567eecd97fb28f6784c8c4ca9329de92673381105122591fc6bf5f3dc58f7ab88f47bb9b643d12c5c181a7</t>
+  </si>
+  <si>
+    <t>RSA-OAEP</t>
+  </si>
+  <si>
+    <t>1c24f4674c9b1871c1aece4669c4449c3fbe5348a06cbe94d98734135860ad20eba21896aa2cf7ddcc5709cff9d9c76da36a3f7ff6c7b8490842f7c101aee8e3d77b5424f7fc40cf5523257a6ef04e2974c4c46759a794171c6130f574c623cba935e5c8b8f3e522b4fe5d598f94415763e80ed0ab67623d05a1817d65263ac8e9067f011674f4808450a8f8fb5c779693b5f920b6b30078a9b2314a0b70d4da25e9558cf87479373939719b35464647b9e6f7f0e541e5056a13e8adb4bb988cdfe5d4906c179bfbf0b20ea9e54e7d85adf4c2c38dc1a66b59a25ec83538f6e534588f2cf7d58c9908993cac3862e7bb69978f12162be7bbb0f86dea2dbb485b</t>
+  </si>
+  <si>
+    <t>4b3f132b17079f37eedca91abeca6e372c2bce555f86fb921f021a92b1d4426487698e3e8f1e72c5ccfb716961714940e3fa4ab195a1fe48a95365c528bec3a438c4e59b89cd897196aaf0ff526f857e6daececc41e204029514f90379b9c600ca030f611cc6cf73baa33777b06579edaf987b9987e0f42f31a1f8fa1e7a7dba28d744365a1716074b7c85ebe3873875931b273fb881071e2b462527a5af6daed45bd2a6d8323cb180123a4cb1cc83769569149cfa7654cf2288fe757459efba29e69c8da498f7968e4ff445554551280782b42d849443807a5aaed78b42c4f5c80f85bb52256dcb01e492e8be9fbfaed47ba5baa52e4f4c660fde765cd8a1f8</t>
+  </si>
+  <si>
+    <t>590f2068760f8ceadd0701273d6b51c1b0546ee284244d60440ff40cc609613e0ef63cc5196da3969bb44501425bf60b9d5638ba49310a59523236147dcba0e4c0b15262601c8d2650900b052c57cd4387135317256348adb2ff5a26e9b742668ac99f1daeae01926a507d1c49ec645fcf511703a45f769ed4a709e06fe42d7544b8c60ebaa4142ad3b50cf739dc0cb6286bcee86dbb1b8c5314d4877a93354374d91b1c399a096cc5dea15b185cacfdc321f1e8a47ba951742d0f5504e74e79a93c5541c6da89aa5f2bb708ff341c64b8471e4df7399f2c7c1bf029253da17d4be5e156a722a688cc37c764b79ef6b5844b1f2d16ecfe22c74e78137d45f922</t>
+  </si>
+  <si>
+    <t>0ca964460526d87b2d1a039b4ff6eff6534f607bd18a426af667c50dd61fb8a5cbd4a52ce22666847a525e29b42cbbc5b934049182d587945a4040bfa763abada1463aea984039b4250c574d6646347109142341f966d3be0617b4ea9c590c0f33671edad2be8ece90bafc6df7a542ae1cdcf329cd27ce34c4f859e7b2193917cfb7530bb828f709b8942178047fd7404f28dd00eb92d75964cac5c0147fbecbf3ca23146f2a18d15294c2b14b9ad8f5eb6e1f55eba8f9fe83895a0361d9f25c262561e1d6fab6bc5ec7eca5a4ec35fc3480620a0559d4bd267ec9e93107fda9e10e0558ba219863ab57a4831f00a55581ee098213b16a8dab8df46410ccf730</t>
+  </si>
+  <si>
+    <t>5aead0d51475164b459247e8fdd8096193770905ce3fc43398b8727844fbcf6ce866e37031e0d6fa4a70c15376f16dee72f0d40a265af036ef61f281b872560c975d7a6e8c1dde9cb96eff63d602717ade7dab62b5d5d15d46457c37138dc0693762ba157054898f8368b6d1a73caee26af697599faba63e109e499e6003edf08498fb40fd35a1f3a9c2aabc68a5e5c6e9c8f745f05d4b9d16180b1c94a7321a26196d3fa6b1d0146af5c659fc03f5c5503a6643bfef681438cf3155a8961cc782a463f99a04c21498e75fd13589b779b0ed0c2cb2da44d65aca16e3039ca4069e81ef044df9cfcd6c7e03ab985a5a388ec10d5ed7f3917f3aa2aabd804a9186</t>
+  </si>
+  <si>
+    <t>\xa7\rc\xfa\xbctyH\x07\x86M\xaflx3#\xf8U\xdbl\xb2\xc3\xba*n\xeen\xc9 \xe2\xaa*D#N\xa9\xfe\xaa\xfc\xf2\x1ck-.XO\x97E\xc1\x07\xcb\'\xf9\xee\x80\xa2\x05\x8f*\x87\xd1+=\xe4\x1b\xa1o/n\xcd\xe7\xf0\x03\x95\x88\xdc\xf4\xba\xbb\x15kK_\xdcfpeYiE\xfcs\xb4\xd9Z\xb6\xc9\x0b\xdb/\nK\x0bg`.s\xc4\x19\xb0\xe6-V\xcel\x03q`\x02Ew\xaa\x1e]n\x0eq"K\xee0J\x17\xcb:#G\x892S\'\x07\xe7\x81:Pa\xac\x0e[\x85\xaex)\x7fz\xe3C\xf7S\x91\xdb\x9f\xab\xa1-\x04%\xeb\xd745\xcf\x00\xf8\xcf\xa5O\xb8o\xd4H\xc3^/\xf2w\xef\xc1f2\\tW\xef\x11\xd4\xd5o,&amp;|\xfd\x80\t g\xc3\xfbD\xf2ne\xcf\xfd\xf6\x8c?\x93\x1alg6R\xbc\x19\x8d\xae\x82\xb3\x01\xcc\xc4"\x9f(\x94Q\x0b{\x86\x960r\x05+\x8d\xdf\xa3\x12}@\x1eG\xe0\x0f</t>
+  </si>
+  <si>
+    <t>S\xe0\xdf\x0b\x90\xcd\x81+\xfbqF\x19\x02\x05\x18L\x98A\x1ew\xcd2v$\x07\x12\x90=\xfa)&lt;3\xee?x\x81 \x8e\xdc6~\r\xf1x\x99\xfd\x8f\xbeD\xec \xde\xfa\xc8b-\xf3\xb4\xf9\xe9f\xf8\xddh]\x91\xa9ml\x8b\xd6\x81\xbc\x81\x9e\xb5uT\x10\xc2\xb6\x99\x0b\xd4\x10l\xb8\x03-\xa2\xc2\xd0\x86\xf0l|\x87\x19e*k#\x10\xa4\xbe\xaf@\x95\xbdD\xda\xaeF\xd8u\xd2(~\x08\xab\x03\xe4\x9c\x07W\xe3*l\xceyd\x80\xe4\xa8\xc0r\xc2\xa4\x08\x85\xb5\x08]\xd9\xe6\x16\xc4\xa0'\xe0=\xb7{.2\r\x86~\xf2\xdd0\xca\x9f\xaa\x8f2\xb5s\xef\xe2\x8ab\xf3\xa71P\xb8\xa4\xb82\x99\x06\xf5\x87q\x8a\x04j`\xbe\xce\xd0\xb2K\xdaL\xaf\xf2lrX\xd4X\x8a^=yI\x9bP\x06\x1981\xbb\xf2r}Au\r\xca\x92+\xf2\x9b\x92\xcb\xdd\xb3tE\xdb\xe9K\x9e\xaa\xdf\xb6\x82;\x1d\x88\x93\x82\xd6!\xe0\x7f6L\x1cK\xcf\xc9\xce</t>
+  </si>
+  <si>
+    <t>\x03&amp;\x81\xe2Um\xf0\xee\xd1\xf9\x00\x88x\x9d\xf5Q\xc8\xfaU\xf4\x90\xc5\xf5\xb7\x9fJ"\x12Z\x17W\xe5 \xe1\x89+\x84\x1f\rySp\xfbxy\xd3r\xe4\xa1!\xb1\xca\xde\x14nq~7t\xc9\n\x9a\xa7\xc0=\x99&amp;\xdc\xe2\xad\xe7=\x9eL\x1aqr\xa2\x88\x17l\xac\x02\xb4\xf2F\x8c\xaa\x02\x11\xbbH\x97\x16\xfb\xc6\xaa1Lo\xc7X2\xed\xb2\xc0\xe0\x8b\xfe\x18\xce\xfd\xc1\xb8\xfd\xda\x05p\xea\x86m#4d:F\xd6\xa6HY\xbf\x98\x86\xdb\x95\x00(2r.\x0b\x9b\xb1\xd6\xaaN%\xa2\xd3\xcf\'\xec\xcd\xaa\xf5\xaf!\xcb\'\xda\xe9M\xad\xec\xd5\x1c\x0e\x17\x9e*\xe3\t\x1bxi\xddK\xb3\xbb\xd8j\xc9J|&amp;-\x913\xb3\xe0\x89\x18:|f\xc4i\xde\x08\xb9\xb8\x01\xf1~\xf9\xca\x9f\xca\xd5\xca\x99\xfdVPGs\x93\xf2-\x9a&amp;\x10\xc3]F{\xb2\x83\xd3 \x02\xba\x0c\xa0\xfblF}\xe5F\xc7\xb0\xc1\xa7\xfe\xee#8;\xc7\xa2\xba\xf8\xc5PW</t>
+  </si>
+  <si>
+    <t>\x03\x11\xad\xe7A\xe2\xa9\x1e\x80\xf7\xe6\x92Z"\xe9\x98oI,:&lt;\x84\x8a\xe92gz\xd8\xb4\xdcz\xaah&gt;_p\x95\x05\xcc\xd2f\r\xfaH/\x7f\x10\xc9J6\xef\x85\xafd\x06\xf46\xb2f\xab\xb7P\x13\xbe\x92\x96\xf4\x93\\\x01\x9b\xfe\xe5\xda\x86\xf8\x01\x10Pt\xcfj fIDM\x1f\xb6\x19\x17\x87\xda\x1b]\x83\x0eJ\x9c\x8f\xf7\x9cA\xae\x87\xc1\x15qZ\xbe\x8d\xf7\xa0\x97*\xd8~c\x93\xdd\xbf\xa9\x87\xdan\xe0\xbd[\x15\x0c\xc2\x184\x01\xc1\xd7\x14?+\xaf\xcb\xc6l\xcf\xd4\x080\xdd\xdc\xa1\xf6\xe36\xf2\xed\xb7E\x90\x10\xe9\x8e\xa2\x98s\x18\x07\x86\x16\x08\x9bG_\xben\xc6\xea\xff\xb1\x84\xbd\x18\xe2\xcf\xbc\xb8)\xcd\xb8H\x92\x1a\xf9\xbe\x87\xf5Z\x13\x89J\'\x9e\xb8\x94r\x9f\xd6+\xb4|\xfc"\xa6\x1d\xfa\xbd\xd1;\x11N\xca\xd1I\xfa\x85\xc0@\xf0j[\x07-\xb1\xfd\x07\x89&amp;\xd5\xf5r[Y\x9c\xc6\xe7\xdf\x07\x08\x98A\x87.9\x18\x84=\x9b</t>
+  </si>
+  <si>
+    <t>E6\xa4\xe1{\x85\xf5\xd447\x00Y\xce\x06\xf6v\xe2\xce\xa8\x19\xd7\xcd\xdc\x0b\xea\xe3|\x0e6\xee\xec\x0e\xa2\xcc\x9e\xad\'\xbdQ\xcf\x1b.r~\xb8\x15\x19jM\x0bB\x04\x1b}\x89F\x97\xa7\xf7s\xdd[\x1cU\xdfJo\xdaR\xe5\xe6\xa9\xd79q\x05@\xd9\xde\x08\rf\xdc\xa5J\xad\xd5%/g\xa4\xc5y\x15\xb0\xff\xea\xca\x0e\x1b\xf0\x8fK\x8axof\xfc\xc8\xcc\xb5\x92\x91\xf9Z7\xb3#\x81\x8b\x02g2\x9du\x13`^:8AkJ\xaf#\xc8L\x1bq\xf0\x94\xf7\xe5c*\x8fFs\x98\x1c.X\x96o\xf0\x1aG^\xe2\xc3\xf3\x0e\xbe\xb5\x83\x0f\xd5\xe5g\x8a\xee9c\xb8\xcb(\x9e~\xf6\r\xa9|I\xc2\xd7R\xc6+1\xa7M{)"#\xae\xaf1\xbb\x07\x15\xc9P\xe8\x176\xcd\x8b\xc8\x00%(\xc8ZKU\x1a\xe2L\xa0\xb6iR\x97\xdb\xa3\xebV\xb0"I\xe7^\xdc\xed&lt;\xf5\x9f\xdd\xb1^\xee\xba\x07g\xe2\xf4\xd5\xc6\x8a\xec\xd9)\x08S\xbc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +260,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -268,33 +313,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,69 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88DCD87-C536-44A0-A021-A859AD837B2C}">
-  <dimension ref="B3:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BA46C-1589-46AF-B671-22984D26464B}">
   <dimension ref="B4:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,12 +742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F19C91-B0A0-4BAC-B86D-8F21B83886C1}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,12 +871,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B20608-D830-427C-A6BB-CBD983ABFC28}">
+  <dimension ref="B4:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="155" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB345C-B238-44B6-A5F9-1813FA70A908}">
   <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,50 +1039,70 @@
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1007,31 +1144,31 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1066,31 +1203,31 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1123,10 +1260,71 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88DCD87-C536-44A0-A021-A859AD837B2C}">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{AFAAF073-EC05-468F-B8A5-1A1A513D5814}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CriptoTestVectors.xlsx
+++ b/CriptoTestVectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAM_NUEVO_Y_PROYECTOS\2023-2\Cripto\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA124A-0354-4C0F-8A05-9E19302D0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90DEB9-E1BF-4A7F-9A30-7DDFED14719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="12435" windowHeight="14790" activeTab="2" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19125" windowHeight="14790" activeTab="3" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
   </bookViews>
   <sheets>
     <sheet name="AESEBC" sheetId="2" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="B4:C14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
   <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B20608-D830-427C-A6BB-CBD983ABFC28}">
   <dimension ref="B4:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB345C-B238-44B6-A5F9-1813FA70A908}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CriptoTestVectors.xlsx
+++ b/CriptoTestVectors.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAM_NUEVO_Y_PROYECTOS\2023-2\Cripto\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90DEB9-E1BF-4A7F-9A30-7DDFED14719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ADED7A-4FA3-4CE5-B400-8D02D4766276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19125" windowHeight="14790" activeTab="3" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19125" windowHeight="14790" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
   </bookViews>
   <sheets>
-    <sheet name="AESEBC" sheetId="2" r:id="rId1"/>
-    <sheet name="AESGCM" sheetId="3" r:id="rId2"/>
-    <sheet name="RSAOAEP" sheetId="8" r:id="rId3"/>
-    <sheet name="CHACHA20" sheetId="4" r:id="rId4"/>
-    <sheet name="SHA2" sheetId="5" r:id="rId5"/>
-    <sheet name="SHA3" sheetId="6" r:id="rId6"/>
-    <sheet name="Scrypt" sheetId="7" r:id="rId7"/>
-    <sheet name="Fuentes" sheetId="1" r:id="rId8"/>
+    <sheet name="VECTORES" sheetId="9" r:id="rId1"/>
+    <sheet name="AESEBC" sheetId="2" r:id="rId2"/>
+    <sheet name="AESGCM" sheetId="3" r:id="rId3"/>
+    <sheet name="RSAOAEP" sheetId="8" r:id="rId4"/>
+    <sheet name="CHACHA20" sheetId="4" r:id="rId5"/>
+    <sheet name="SHA2" sheetId="5" r:id="rId6"/>
+    <sheet name="SHA3" sheetId="6" r:id="rId7"/>
+    <sheet name="Scrypt" sheetId="7" r:id="rId8"/>
+    <sheet name="Fuentes" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
   <si>
     <t xml:space="preserve">PLAINTEXT and/or IV = </t>
   </si>
@@ -241,14 +242,139 @@
   </si>
   <si>
     <t>E6\xa4\xe1{\x85\xf5\xd447\x00Y\xce\x06\xf6v\xe2\xce\xa8\x19\xd7\xcd\xdc\x0b\xea\xe3|\x0e6\xee\xec\x0e\xa2\xcc\x9e\xad\'\xbdQ\xcf\x1b.r~\xb8\x15\x19jM\x0bB\x04\x1b}\x89F\x97\xa7\xf7s\xdd[\x1cU\xdfJo\xdaR\xe5\xe6\xa9\xd79q\x05@\xd9\xde\x08\rf\xdc\xa5J\xad\xd5%/g\xa4\xc5y\x15\xb0\xff\xea\xca\x0e\x1b\xf0\x8fK\x8axof\xfc\xc8\xcc\xb5\x92\x91\xf9Z7\xb3#\x81\x8b\x02g2\x9du\x13`^:8AkJ\xaf#\xc8L\x1bq\xf0\x94\xf7\xe5c*\x8fFs\x98\x1c.X\x96o\xf0\x1aG^\xe2\xc3\xf3\x0e\xbe\xb5\x83\x0f\xd5\xe5g\x8a\xee9c\xb8\xcb(\x9e~\xf6\r\xa9|I\xc2\xd7R\xc6+1\xa7M{)"#\xae\xaf1\xbb\x07\x15\xc9P\xe8\x176\xcd\x8b\xc8\x00%(\xc8ZKU\x1a\xe2L\xa0\xb6iR\x97\xdb\xa3\xebV\xb0"I\xe7^\xdc\xed&lt;\xf5\x9f\xdd\xb1^\xee\xba\x07g\xe2\xf4\xd5\xc6\x8a\xec\xd9)\x08S\xbc</t>
+  </si>
+  <si>
+    <t>VECTORES DE PRUEBA</t>
+  </si>
+  <si>
+    <t>NONCE</t>
+  </si>
+  <si>
+    <t>To see a World in a Grain of Sand And a Heaven in a Wild Flower.</t>
+  </si>
+  <si>
+    <t>To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.</t>
+  </si>
+  <si>
+    <t>To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.</t>
+  </si>
+  <si>
+    <t>To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.</t>
+  </si>
+  <si>
+    <t>To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.To see a World in a Grain of Sand And a Heaven in a Wild Flower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para hashing y firmas. Primero 64 bytes, segundo 128, … </t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>1edfd1c3599bb9ec9d1fd6c6030448044066e48722acf9d15d7b281172edb6944fb38814e1914b22c79d47926da156d734ea63547ee68315348ae99d591aced3</t>
+  </si>
+  <si>
+    <t>f350b096785390045de1584240a3317a4fa7831ec0dd556332f42ffa9b2bd0b89de94caa9320db660b1f588ef015ba24</t>
+  </si>
+  <si>
+    <t>db779a2feeb95b78320e48164b860a597ca081ca6851822bdbca5fd501b74b72319cd79c9bdab8fb4375e5ae862436ad</t>
+  </si>
+  <si>
+    <t>7d0f654deec59a9da346484839c38d44614a9129b984be3183ebdd34fd4f98df2cc076dc05c310d334d21cd3df004c86</t>
+  </si>
+  <si>
+    <t>dc95c078a2408989ad48a21492842087</t>
+  </si>
+  <si>
+    <t>5fc4d4c26434a6e5b572cb421a1fe30ac92df0b7249314c2677c5797bc3dcf6fac823d10948f24fac82a4a1a369fe2762e4eb96389f4175626a8369726bfde61</t>
+  </si>
+  <si>
+    <t>5fc4d4c26434a6e5b572cb421a1fe30ac92df0b7249314c2677c5797bc3dcf6fac823d10948f24fac82a4a1a369fe276</t>
+  </si>
+  <si>
+    <t>ad388657783dd1e93127f67f4212a8b4fda5148e49d6a4be04de848e6c20859fee8e444b5939b031362a0f4d5d2cd601</t>
+  </si>
+  <si>
+    <t>1c145c30b5e00a8f51690d4f0f1bfc7763368e557a011ad12b8d33bcfc372f6c957c52caef247a9614885043258c063d</t>
+  </si>
+  <si>
+    <t>e454ff701debfa63a683528751b7264a2daae9b81b762d30e566a902f165dc08</t>
+  </si>
+  <si>
+    <t>61aefbb124236222020e25786c10a9e7b8fe8adce0a6fab35b071fc900a448d297f81b4eeed6a97d2f649a8e9c3421dde7cb440142498f70be51503fd9ccb753c8f94071caf5c34f272c657ce2c0a75c</t>
+  </si>
+  <si>
+    <t>11c085eb1e50b609df3070dbdfe004028adcf8112f52159ad149f6c6a21ec3a63c9b5af5fa2b3ca4904c9b49fc6360b75c75ef4ea4aa7d7cad7b2af318787308784680eb427a885acd2aeb13</t>
+  </si>
+  <si>
+    <t>e321a4f5295371efd795762e978699c7085adb67d3ce7e52908192b49d5b63edf177d9f6e674c31ea802be76945872af2e483b67aeeda43601ca8e1b5c6dc669a77a1ac38ddb8aa0969c8ecb</t>
+  </si>
+  <si>
+    <t>2b9c570c929960f617456b00a53d22b55f6b050069ec9edf3cd01540b0e193ffce932d7521c1dea9a1d0a5bd44b5852f5e2d24ef45f9c28c6b12e79c74fe3884e77f4e3955962062864b8e8a</t>
+  </si>
+  <si>
+    <t>2512a9d56f01f958e1a81d77541d7d6fd2498fc1a00d7228e8639a98d898d11a</t>
+  </si>
+  <si>
+    <t>1abacdd287029eb0bab3b13385a36faf4866262037da3a9e8a622e69c3dfc0df0f258b36b83590adb82b443e514a2054b5aae2cd1cbc94e0b54c9524f738363111d18749b19bce7761ad69aa7715de87</t>
+  </si>
+  <si>
+    <t>1abacdd287029eb0bab3b13385a36faf4866262037da3a9e8a622e69c3dfc0df0f258b36b83590adb82b443e514a2054b5aae2cd1cbc94e0b54c95241bcf61e481227a2bc4381317813af916</t>
+  </si>
+  <si>
+    <t>727b525a74a374fd01fc13009b301457164a352affd55656c5416df7b0f54e76b820dc2056ec55599dd9089525b83d52cd0fe92182d623e732daa49f0dcdaf797f713fe3cb1047a60cc5b953</t>
+  </si>
+  <si>
+    <t>3d65cd55e56ffc8603da5b42fe4200d0d1fc82278e3c86c7396b4e2efa49e2983c2d2b35a78c036deedc4b3e9c88c435d803435371ccca2b17c14b7ecd920a386452f0a2ea7ea7b543c26886</t>
+  </si>
+  <si>
+    <t>53fcb698450a30d82a4d6ffa2a0139c7</t>
+  </si>
+  <si>
+    <t>0b9f32b850f3962c41435bdcae52dcbc6a9c16ecf621ec4c9ccf2cecd6f8d87a0b37793dc3e40660273016c5fbdd70de80bfd206a790134943daaa4bb00fcb19</t>
+  </si>
+  <si>
+    <t>9ff1fa889dbe3997ab5ca58f0c397cc2920249bea260e4d66a530045a0ff1971566b7eb0648f3c17f4008c586a6d4e9e9d0154f79def0df4c9256809</t>
+  </si>
+  <si>
+    <t>19bba2baaf635f50731f646bc75ea3ccd5af219252603dc7b8b55da11a390587b80b9ec1aafa1236608b0d659132a6802af289cae4e9d385508ee5f8</t>
+  </si>
+  <si>
+    <t>0b376153e8d6143eb7a536fc3213f5fc22a2cc1843785c1c12b218c2b167c8d5e092a32ae8a40acc65caef691ae0417552135e8bc3c0b302348dee4b</t>
+  </si>
+  <si>
+    <t>17b2f0101fea9b6a243282006da9d1b1235fe069a92111914226ade4a420da3369309a60295860a95be2f4e9d25084cab2fa956c8cd602f3113e9a600cb0904d</t>
+  </si>
+  <si>
+    <t>17b2f0101fea9b6a243282006da9d1b1235fe069a92111914226ade4a420da3369309a60295860a95be2f4e9d25084cab2fa956c8cd602f3113e9a60</t>
+  </si>
+  <si>
+    <t>8acd84bdbd8e363d8f14663f85f41f5d1900510fd801d9c8b90c76801fe020a9d7a212e8327bf92b737af43bf9454cab1ece71e02255aa34ed964682</t>
+  </si>
+  <si>
+    <t>CHACHA</t>
+  </si>
+  <si>
+    <t>AESGCM</t>
+  </si>
+  <si>
+    <t>AESECB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -304,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -312,34 +438,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,11 +807,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741DF164-5D0B-43D5-9658-9FEC653C26E2}">
+  <dimension ref="B3:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="156.85546875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="136.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="135.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BA46C-1589-46AF-B671-22984D26464B}">
   <dimension ref="B4:C14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,71 +1126,71 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -742,12 +1198,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F19C91-B0A0-4BAC-B86D-8F21B83886C1}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,46 +1217,46 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -808,13 +1264,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -822,13 +1278,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -836,47 +1292,47 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B20608-D830-427C-A6BB-CBD983ABFC28}">
   <dimension ref="B4:E24"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,106 +1346,106 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -998,12 +1454,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB345C-B238-44B6-A5F9-1813FA70A908}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,32 +1473,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1050,13 +1506,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1064,13 +1520,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1078,13 +1534,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1092,13 +1548,13 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1106,33 +1562,33 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265509F-AC56-4BE0-865D-7484149BECCA}">
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B4" sqref="B4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1599,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1156,37 +1612,37 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29721064-6B2C-4331-803B-D493B4CD57C0}">
   <dimension ref="B3:C9"/>
   <sheetViews>
@@ -1202,7 +1658,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1215,37 +1671,37 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA7F26-8892-4FA9-B0F3-CC9D423CD7C4}">
   <dimension ref="B3"/>
   <sheetViews>
@@ -1259,7 +1715,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1268,12 +1724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88DCD87-C536-44A0-A021-A859AD837B2C}">
   <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1738,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1297,12 +1753,12 @@
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1312,12 +1768,12 @@
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
     </row>

--- a/CriptoTestVectors.xlsx
+++ b/CriptoTestVectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAM_NUEVO_Y_PROYECTOS\2023-2\Cripto\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ADED7A-4FA3-4CE5-B400-8D02D4766276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22ABDB-2E95-4FDF-9069-13785D75FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="19125" windowHeight="14790" xr2:uid="{E44B6995-12E7-4EC4-A470-8CE4485F1C02}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t xml:space="preserve">PLAINTEXT and/or IV = </t>
   </si>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t>Scrypt</t>
-  </si>
-  <si>
-    <t>HASHING</t>
-  </si>
-  <si>
-    <t>https://www.di-mgt.com.au/sha_testvectors.html</t>
   </si>
   <si>
     <t>cafebabefacedbadcafebabefacedbad</t>
@@ -811,7 +805,7 @@
   <dimension ref="B3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +821,7 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -838,16 +832,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -858,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -878,16 +872,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -898,16 +892,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -918,16 +912,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -938,16 +932,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -958,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -978,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -998,16 +992,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1018,16 +1012,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1038,16 +1032,16 @@
         <v>23</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1061,7 +1055,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1069,33 +1063,33 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1347,7 +1341,7 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1366,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -1376,7 +1370,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1394,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1397,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1426,27 +1420,27 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1513,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1527,10 +1521,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1541,10 +1535,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1555,10 +1549,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1729,7 +1723,7 @@
   <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B11" sqref="B11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,14 +1762,10 @@
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="B12" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
